--- a/emails academicos.xlsx
+++ b/emails academicos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="671">
   <si>
     <t>ADELSON DE SOUZA MATOS ROCHA &lt;adelson.rocha086@academico.ifs.edu.br&gt;</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ADEMAEL DE JESUS OLIVEIRA &lt;ademael.oliveira043@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t>Adilson Alves Bezerra Junior &lt;dilson.junior02@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ADRIANA RAMOS LEITE ALVES &lt;adriana.alves779@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -64,21 +67,27 @@
     <t xml:space="preserve"> ALEXSANDRO DE JESUS RAIMUNDO &lt;alexsandro.raimundo072@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> ALICE CARDOSO SANTOS &lt;alice.santos084@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alife dos Santos &lt;alife.santos93@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alinne Souza Santos &lt;alinne.santos91@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALÍPIO FERNANDO DE PAULA PIRES &lt;alipio.pires077@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALISSON SILVA FREIRE &lt;alisson.freire031@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALISSON VICTOR SOUZA SANTOS &lt;alisson.santos089@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t>ALGISLAN MENDES BAZILIO &lt;algislan.bazilio054@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alinne Souza Santos &lt;alinne.santos91@academico.ifs.edu.br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALÍPIO FERNANDO DE PAULA PIRES &lt;alipio.pires077@academico.ifs.edu.br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALISSON SILVA FREIRE &lt;alisson.freire031@academico.ifs.edu.br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALISSON VICTOR SOUZA SANTOS &lt;alisson.santos089@academico.ifs.edu.br&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ALLAN CHRISTIAN OLIVEIRA &lt;allan.oliveira063@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t xml:space="preserve"> ANTONIO MACHADO SILVINO NETO &lt;antonio.neto004@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> ANTONIO MUNIZ QUEIROZ NETO</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ANTÔNIO SEVERO SANTOS NETO &lt;antonio.neto091@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -310,6 +322,9 @@
     <t xml:space="preserve"> Camile Vitória Santos Soares &lt;camile.soares@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> Camilla Machado dos Santos &lt;camilla.santos97@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> CARLOS DANIEL CORREA SANTOS &lt;carlos.santos0846@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -394,6 +409,9 @@
     <t xml:space="preserve"> Daniel Celestino de Oliveira &lt;daniel.oliveira12@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> Daniel Ferreira Soares Santos &lt;daniel.santos040@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DANIEL VINICIUS SANTOS VIANA &lt;daniel.viana082@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -412,6 +430,9 @@
     <t xml:space="preserve"> Danilo dos Santos Passos &lt;danilo.passos080@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> DANILO SANTOS CRUZ &lt;danilo.cruz073@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Davi Nascimento dos Santos &lt;davi.santos98@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -451,6 +472,9 @@
     <t xml:space="preserve"> DENISSON DE SOUZA OLIVEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve"> DENISSON RIBEIRO FERREIRA &lt;denisson.ferreira082@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DENISSON SANTOS MATEUS &lt;denisson.mateus026@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -550,6 +574,9 @@
     <t xml:space="preserve"> EMILLY CONCEICAO COSTA</t>
   </si>
   <si>
+    <t xml:space="preserve"> EMILLY GIOVANA COSTA SANTOS &lt;emilly.santos092@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> EMILLY KELLY OLIVEIRA SANTOS &lt;emilly.santos086@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -577,6 +604,9 @@
     <t xml:space="preserve"> ESAU FELIX BILCHIOR &lt;esau.bilchior076@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> Esthefany Araujo da Silva &lt;esthefany.silva01@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ESTHER LARISSA DOS SANTOS CONCEICAO</t>
   </si>
   <si>
@@ -658,6 +688,9 @@
     <t xml:space="preserve"> GABRIEL SILVA SANTOS</t>
   </si>
   <si>
+    <t xml:space="preserve"> GABRIELA CAETANO CARDOSO &lt;gabriela.cardoso079@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> GABRIELA DE CARVALHO SANTOS PASSOS &lt;gabriela.passos062@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -775,6 +808,9 @@
     <t xml:space="preserve"> HUGO SOUZA DE ASSUNÇÃO &lt;hugo.assuncao055@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> IAGO DAMIAO DOS SANTOS GONCALVES</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Iago Nathan Barreto Menezes de Souza &lt;iago.souza99@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -826,12 +862,18 @@
     <t xml:space="preserve"> IRLA DE JESUS TAVARES &lt;irla.tavares052@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> ISABELA DOS SANTOS SILVEIRA &lt;isabela.silveira074@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Isamara de Castro Duarte &lt;isamara.duarte93@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> ITALO LIMA MEDEIROS &lt;italo.medeiros075@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> ITALO OLIVEIRA SANTOS DE JESUS &lt;italo.jesus058@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ITALO ROBERTO DE JESUS SANTOS</t>
   </si>
   <si>
@@ -1012,6 +1054,9 @@
     <t xml:space="preserve"> JOSE DOMINGOS DE SOUZA BARBOSA &lt;jose.barbosa057@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> JOSÉ DOMINGOS DO CARMO SANTANA &lt;jose.santana099@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Jose Domingos dos Santos Nascimento &lt;jose.nascimento94@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1120,6 +1165,9 @@
     <t xml:space="preserve"> KAROLINE SILVA GAMA &lt;karoline.gama083@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> KASSIANNY CONCEICAO CRUZ &lt;kassianny.cruz082@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> KATYANE SANTANA DA SILVA</t>
   </si>
   <si>
@@ -1138,6 +1186,9 @@
     <t xml:space="preserve"> KAYLAINE ASSUNÇÃO SANTOS BARBOSA &lt;kaylaine.barbosa080@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> KELVES RYAN SANTANA CONSTANTE &lt;kelves.constante090@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> KESIA DOS SANTOS RAMOS</t>
   </si>
   <si>
@@ -1150,9 +1201,15 @@
     <t xml:space="preserve"> LAIS DA SILVA SANTOS</t>
   </si>
   <si>
+    <t xml:space="preserve"> LAIS SANTANA REIS &lt;lais.reis066@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> LAISA RODRIGUES DE SOUZA &lt;laisa.souza080@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> LAISA VITORIA DOS SANTOS &lt;laisa.santos096@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Laise de Santana Brito Pinheiro &lt;laise.pinheiro86@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1162,7 +1219,7 @@
     <t xml:space="preserve"> LARISSA COSTA PUGLIESI OLIVEIRA &lt;larissa.oliveira040@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LARISSA DA SILVA SANTOS</t>
+    <t>LARISSA DA SILVA SANTOS &lt;larissa.santos092@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LARISSA DE JESUS CARVALHO &lt;larissa.carvalho089@academico.ifs.edu.br&gt;</t>
@@ -1186,6 +1243,9 @@
     <t xml:space="preserve"> LAZARO SANTOS NASCIMENTO &lt;lazaro.nascimento085@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> LEONARDO ARAÚJO DE OLIVEIRA &lt;leonardo.oliveira064@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> LEONARDO AUGUSTO DE JESUS SANTOS &lt;leonardo.santos059@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1288,7 +1348,7 @@
     <t xml:space="preserve"> LUCIELSE SANTOS DOROTEA &lt;lucielse.dorotea057@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUCIMARA MARQUES &lt;lucimara.santana029@academico.ifs.edu.br&gt;</t>
+    <t xml:space="preserve"> LUCIMARA MARQUES SANTANA &lt;lucimara.santana029@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LUCIVANIA VITORIA OLIVEIRA DA SILVA &lt;lucivania.silva091@academico.ifs.edu.br&gt;</t>
@@ -1300,13 +1360,19 @@
     <t xml:space="preserve"> LUCYLIA TRINDADE DE SOUSA NASCIMENTO</t>
   </si>
   <si>
+    <t xml:space="preserve"> LUDMILA MARIA CIRINO DOS SANTOS &lt;ludmila.santos092@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> LUIS CARLOS DOS SANTOS</t>
   </si>
   <si>
+    <t xml:space="preserve"> LUÍS PAULO MENEZES ÁVILA &lt;luis.avila066@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> LUIZ ANTONIO SANTOS SILVA &lt;luiz.silva082@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUIZ FABIANO DE JESUS DA CONCEICAO</t>
+    <t xml:space="preserve"> LUIZ FABIANO DE JESUS DA CONCEICAO &lt;luiz.conceicao070@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LUIZ FELIPE SANTOS PEREIRA &lt;luiz.pereira096@academico.ifs.edu.br&gt;</t>
@@ -1354,6 +1420,9 @@
     <t xml:space="preserve"> MARCOS VINÍCIUS SANTOS MATOS &lt;marcos.matos090@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> MARCUS ADRIEL SALES RAMOS &lt;marcus.ramos089@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Marcus Vinicius Moreira de Souza &lt;marcus.souza071@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1387,6 +1456,9 @@
     <t xml:space="preserve"> MARIA LAURA ALVES BISPO &lt;maria.bispo051@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> MARIA MILENA AMORIM SOUZA &lt;maria.souza070@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MARIA THAILAINE SANTOS SILVA &lt;maria.silva0915@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1426,9 +1498,15 @@
     <t xml:space="preserve"> MATHEUS PAES DE LIMA &lt;matheus.lima415@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATHEUS PEREIRA ALVES &lt;matheus.alves074@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Matheus Rodrigues Oliveira &lt;matheus.oliveira00@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATHIAS DOS SANTOS SÁ &lt;mathias.sa068@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MAURICIO LIMA SANTOS &lt;mauricio.santos089@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1438,6 +1516,9 @@
     <t xml:space="preserve"> MAYARA OLIVEIRA SANTOS</t>
   </si>
   <si>
+    <t xml:space="preserve"> MAYARA REBECA NASCIMENTO SANTOS &lt;mayara.santos076@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MAYCON SANTOS LIMA &lt;maycon.lima084@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1456,7 +1537,7 @@
     <t xml:space="preserve"> Milena da Cruz Mota &lt;milena.mota99@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> MILENA DE OLIVEIRA SOARES</t>
+    <t xml:space="preserve"> MILENA DE OLIVEIRA SOARES &lt;milena.soares068@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Milena Nicacio Macedo &lt;milena.macedo98@academico.ifs.edu.br&gt;</t>
@@ -1486,12 +1567,18 @@
     <t xml:space="preserve"> Moises Santos da Silva &lt;moises.silva95@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> MONALIZA SILVEIRA NUNES BARROS &lt;monaliza.barros094@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Monique Costa Moreira &lt;monique.moreira95@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> MYLLENE VITORIA SANTOS COSTA &lt;myllene.costa091@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> NAINDE DOS PASSOS SOARES &lt;nainde.soares077@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Natália Ramos dos Santos &lt;natalia.santos062@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1645,12 +1732,18 @@
     <t xml:space="preserve"> RENATA SOARES ALMEIDA</t>
   </si>
   <si>
+    <t xml:space="preserve"> RENIELLY DOS SANTOS FELIX &lt;renielly.felix091@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> RENIVALDO FERREIRA SOUZA GOIS &lt;renivaldo.gois002@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> RHAYRA GUADALUPE MELO SANTOS &lt;rhayra.santos089@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> RIVALDO CONCEICAO COSTA &lt;rivaldo.costa082@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ROBERIO DE JESUS</t>
   </si>
   <si>
@@ -1723,6 +1816,12 @@
     <t xml:space="preserve"> SAMUA TAINAR NUNES DOS SANTOS &lt;samua.santos072@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> SAMUEL FELIPE MARQUES SANTOS &lt;samuel.santos040@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SARA BATISTA GOES &lt;sara.goes072@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sara Maria Melo dos Santos &lt;sara.santos00@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1735,6 +1834,12 @@
     <t xml:space="preserve"> Savio Henrique Lima de Oliveira Santos &lt;savio.santos96@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> SAVIO RAMOS SILVEIRA &lt;savio.silveira064@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SÉRGIO HENRIQUE DOS SANTOS SOARES &lt;sergio.soares081@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sheila Silva Santos &lt;sheila.santos89@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1747,6 +1852,9 @@
     <t xml:space="preserve"> Silviane Oliveira Santos &lt;silviane.santos92@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> SOFIA SANTOS ARAUJO</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Stefane Karolaine Leite Almeida &lt;stefane.almeida99@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
@@ -1850,6 +1958,9 @@
   </si>
   <si>
     <t xml:space="preserve"> VICTOR JOSÉ MONTEIRO PASSOS &lt;victor.passos048@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VICTOR MACEDO VIANA &lt;victor.viana034@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> VICTORIA KELLY NASCIMENTO &lt;victoria.nascimento022@academico.ifs.edu.br&gt;</t>
@@ -1923,10 +2034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1958,6 +2069,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1965,8 +2120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1980,8 +2136,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1989,22 +2169,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2020,14 +2184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2035,37 +2192,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,22 +2201,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2110,7 +2221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,13 +2245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,13 +2269,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2311,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2170,7 +2359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,73 +2383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2264,30 +2399,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2298,26 +2409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2340,28 +2442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2377,6 +2468,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2403,149 +2514,149 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2555,12 +2666,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2881,15 +2995,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D634"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="56.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="56.14" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2900,13 +3014,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="15" spans="1:1">
+    <row r="2" ht="14.5" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
@@ -2976,14 +3090,14 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2"/>
@@ -2996,22 +3110,22 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="22.5" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="21" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2"/>
@@ -3025,77 +3139,77 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="22.5" spans="1:4">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="22.5" spans="1:4">
-      <c r="A29" s="1" t="s">
+    <row r="29" ht="21" spans="1:4">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2"/>
@@ -3108,8 +3222,8 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="21" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2"/>
@@ -3130,7 +3244,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2"/>
@@ -3151,14 +3265,14 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="2"/>
@@ -3172,14 +3286,14 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2"/>
@@ -3192,7 +3306,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" ht="22.5" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3207,13 +3321,13 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" ht="21" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3228,7 +3342,7 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="2"/>
@@ -3263,7 +3377,7 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="2"/>
@@ -3277,7 +3391,7 @@
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="2"/>
@@ -3305,7 +3419,7 @@
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="2"/>
@@ -3333,21 +3447,21 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="2"/>
@@ -3368,7 +3482,7 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="2"/>
@@ -3424,7 +3538,7 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2"/>
@@ -3452,7 +3566,7 @@
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="2"/>
@@ -3480,28 +3594,28 @@
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="2"/>
@@ -3514,42 +3628,42 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" ht="22.5" spans="1:4">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" ht="22.5" spans="1:4">
+    <row r="95" ht="21" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -3563,21 +3677,21 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="5" t="s">
+    <row r="97" ht="21" spans="1:4">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" ht="21" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -3592,7 +3706,7 @@
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="2"/>
@@ -3606,13 +3720,13 @@
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" ht="22.5" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -3647,7 +3761,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" ht="21" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -3682,14 +3796,14 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" ht="22.5" spans="1:4">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" ht="22.5" spans="1:4">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -3697,14 +3811,14 @@
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="2"/>
@@ -3717,14 +3831,14 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" ht="22.5" spans="1:4">
+    <row r="119" ht="21" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" ht="21" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -3732,27 +3846,27 @@
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" ht="21" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -3767,7 +3881,7 @@
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="2"/>
@@ -3781,14 +3895,14 @@
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="2"/>
@@ -3809,14 +3923,14 @@
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="2"/>
@@ -3851,21 +3965,21 @@
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C140" s="2"/>
@@ -3879,14 +3993,14 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C143" s="2"/>
@@ -3900,14 +4014,14 @@
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C146" s="2"/>
@@ -3920,7 +4034,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" ht="22.5" spans="1:4">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -3928,7 +4042,7 @@
       <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C149" s="2"/>
@@ -3942,7 +4056,7 @@
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C151" s="2"/>
@@ -3956,7 +4070,7 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C153" s="2"/>
@@ -3969,7 +4083,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" ht="22.5" spans="1:4">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -3984,14 +4098,14 @@
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C158" s="2"/>
@@ -4004,7 +4118,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" ht="22.5" spans="1:4">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -4012,7 +4126,7 @@
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C161" s="2"/>
@@ -4025,7 +4139,7 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" ht="22.5" spans="1:4">
+    <row r="163" ht="21" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -4047,7 +4161,7 @@
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C166" s="2"/>
@@ -4060,7 +4174,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" ht="21" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -4075,13 +4189,13 @@
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" ht="21" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -4096,14 +4210,14 @@
       <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C174" s="2"/>
@@ -4116,8 +4230,8 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" ht="22.5" spans="1:4">
-      <c r="A176" s="5" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C176" s="2"/>
@@ -4131,7 +4245,7 @@
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="2"/>
@@ -4155,7 +4269,7 @@
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B181" s="2"/>
@@ -4163,7 +4277,7 @@
       <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B182" s="2"/>
@@ -4178,8 +4292,8 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1" t="s">
+    <row r="184" ht="21" spans="1:4">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B184" s="2"/>
@@ -4187,7 +4301,7 @@
       <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B185" s="2"/>
@@ -4203,7 +4317,7 @@
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B187" s="2"/>
@@ -4235,7 +4349,7 @@
       <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B191" s="2"/>
@@ -4259,7 +4373,7 @@
       <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B194" s="2"/>
@@ -4267,14 +4381,14 @@
       <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" ht="22.5" spans="1:4">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -4283,7 +4397,7 @@
       <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B197" s="2"/>
@@ -4299,7 +4413,7 @@
       <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B199" s="2"/>
@@ -4314,7 +4428,7 @@
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" ht="22.5" spans="1:4">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -4331,7 +4445,7 @@
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="2"/>
@@ -4347,14 +4461,14 @@
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" ht="21" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -4379,7 +4493,7 @@
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="2"/>
@@ -4387,14 +4501,14 @@
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" ht="22.5" spans="1:4">
+    <row r="211" ht="21" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -4411,7 +4525,7 @@
       <c r="D212" s="2"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B213" s="2"/>
@@ -4426,7 +4540,7 @@
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" ht="22.5" spans="1:4">
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -4434,15 +4548,15 @@
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" ht="22.5" spans="1:4">
-      <c r="A216" s="5" t="s">
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" ht="22.5" spans="1:4">
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -4474,8 +4588,8 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="5" t="s">
+    <row r="221" ht="21" spans="1:4">
+      <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B221" s="2"/>
@@ -4483,7 +4597,7 @@
       <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B222" s="2"/>
@@ -4498,7 +4612,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" ht="22.5" spans="1:4">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -4507,31 +4621,31 @@
       <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="5" t="s">
+    <row r="226" ht="21" spans="1:4">
+      <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1" t="s">
+    <row r="227" ht="21" spans="1:4">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" ht="22.5" spans="1:4">
-      <c r="A228" s="5" t="s">
+    <row r="228" ht="21" spans="1:4">
+      <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B228" s="2"/>
@@ -4555,7 +4669,7 @@
       <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="2"/>
@@ -4563,7 +4677,7 @@
       <c r="D231" s="2"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B232" s="2"/>
@@ -4571,7 +4685,7 @@
       <c r="D232" s="2"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B233" s="2"/>
@@ -4579,15 +4693,15 @@
       <c r="D233" s="2"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="5" t="s">
+    <row r="235" ht="21" spans="1:4">
+      <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B235" s="2"/>
@@ -4602,8 +4716,8 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" ht="22.5" spans="1:4">
-      <c r="A237" s="1" t="s">
+    <row r="237" spans="1:4">
+      <c r="A237" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B237" s="2"/>
@@ -4619,7 +4733,7 @@
       <c r="D238" s="2"/>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B239" s="2"/>
@@ -4634,7 +4748,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" ht="22.5" spans="1:4">
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -4642,8 +4756,8 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" ht="22.5" spans="1:4">
-      <c r="A242" s="5" t="s">
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B242" s="2"/>
@@ -4651,7 +4765,7 @@
       <c r="D242" s="2"/>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B243" s="2"/>
@@ -4667,7 +4781,7 @@
       <c r="D244" s="2"/>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B245" s="2"/>
@@ -4690,7 +4804,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" ht="21" spans="1:4">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -4715,14 +4829,14 @@
       <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" ht="21" spans="1:4">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -4730,7 +4844,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" ht="21" spans="1:4">
       <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
@@ -4755,7 +4869,7 @@
       <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B256" s="2"/>
@@ -4819,7 +4933,7 @@
       <c r="D263" s="2"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B264" s="2"/>
@@ -4827,7 +4941,7 @@
       <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B265" s="2"/>
@@ -4835,7 +4949,7 @@
       <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B266" s="2"/>
@@ -4843,7 +4957,7 @@
       <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B267" s="2"/>
@@ -4867,7 +4981,7 @@
       <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B270" s="2"/>
@@ -4875,7 +4989,7 @@
       <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B271" s="2"/>
@@ -4899,7 +5013,7 @@
       <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B274" s="2"/>
@@ -4907,7 +5021,7 @@
       <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B275" s="2"/>
@@ -4923,14 +5037,14 @@
       <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
     </row>
-    <row r="278" ht="22.5" spans="1:4">
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
@@ -4939,7 +5053,7 @@
       <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B279" s="2"/>
@@ -4955,7 +5069,7 @@
       <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B281" s="2"/>
@@ -4963,7 +5077,7 @@
       <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B282" s="2"/>
@@ -4971,7 +5085,7 @@
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B283" s="2"/>
@@ -4979,7 +5093,7 @@
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B284" s="2"/>
@@ -4995,7 +5109,7 @@
       <c r="D285" s="2"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B286" s="2"/>
@@ -5027,7 +5141,7 @@
       <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B290" s="2"/>
@@ -5035,14 +5149,14 @@
       <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" ht="21" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
@@ -5059,7 +5173,7 @@
       <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B294" s="2"/>
@@ -5067,7 +5181,7 @@
       <c r="D294" s="2"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B295" s="2"/>
@@ -5131,7 +5245,7 @@
       <c r="D302" s="2"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B303" s="2"/>
@@ -5179,7 +5293,7 @@
       <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B309" s="2"/>
@@ -5211,7 +5325,7 @@
       <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B313" s="2"/>
@@ -5219,7 +5333,7 @@
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B314" s="2"/>
@@ -5227,7 +5341,7 @@
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B315" s="2"/>
@@ -5235,7 +5349,7 @@
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B316" s="2"/>
@@ -5243,7 +5357,7 @@
       <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B317" s="2"/>
@@ -5251,7 +5365,7 @@
       <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B318" s="2"/>
@@ -5275,14 +5389,14 @@
       <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" ht="22.5" spans="1:4">
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>321</v>
       </c>
@@ -5299,7 +5413,7 @@
       <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B324" s="2"/>
@@ -5331,7 +5445,7 @@
       <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B328" s="2"/>
@@ -5339,7 +5453,7 @@
       <c r="D328" s="2"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B329" s="2"/>
@@ -5347,7 +5461,7 @@
       <c r="D329" s="2"/>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B330" s="2"/>
@@ -5355,7 +5469,7 @@
       <c r="D330" s="2"/>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B331" s="2"/>
@@ -5370,8 +5484,8 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" ht="22.5" spans="1:4">
-      <c r="A333" s="5" t="s">
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B333" s="2"/>
@@ -5394,8 +5508,8 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="5" t="s">
+    <row r="336" ht="21" spans="1:4">
+      <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B336" s="2"/>
@@ -5411,7 +5525,7 @@
       <c r="D337" s="2"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B338" s="2"/>
@@ -5475,7 +5589,7 @@
       <c r="D345" s="2"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B346" s="2"/>
@@ -5483,7 +5597,7 @@
       <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="4" t="s">
         <v>346</v>
       </c>
       <c r="B347" s="2"/>
@@ -5491,7 +5605,7 @@
       <c r="D347" s="2"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B348" s="2"/>
@@ -5507,7 +5621,7 @@
       <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B350" s="2"/>
@@ -5531,14 +5645,14 @@
       <c r="D352" s="2"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" ht="22.5" spans="1:4">
+    <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
@@ -5555,7 +5669,7 @@
       <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B356" s="2"/>
@@ -5587,7 +5701,7 @@
       <c r="D359" s="2"/>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="5" t="s">
+      <c r="A360" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B360" s="2"/>
@@ -5595,7 +5709,7 @@
       <c r="D360" s="2"/>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B361" s="2"/>
@@ -5603,7 +5717,7 @@
       <c r="D361" s="2"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="5" t="s">
+      <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B362" s="2"/>
@@ -5619,7 +5733,7 @@
       <c r="D363" s="2"/>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B364" s="2"/>
@@ -5658,7 +5772,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" ht="21" spans="1:4">
       <c r="A369" s="1" t="s">
         <v>368</v>
       </c>
@@ -5683,14 +5797,14 @@
       <c r="D371" s="2"/>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" ht="22.5" spans="1:4">
+    <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
         <v>372</v>
       </c>
@@ -5698,7 +5812,7 @@
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" ht="22.5" spans="1:4">
+    <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
         <v>373</v>
       </c>
@@ -5707,7 +5821,7 @@
       <c r="D374" s="2"/>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="5" t="s">
         <v>374</v>
       </c>
       <c r="B375" s="2"/>
@@ -5715,7 +5829,7 @@
       <c r="D375" s="2"/>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B376" s="2"/>
@@ -5723,7 +5837,7 @@
       <c r="D376" s="2"/>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="5" t="s">
         <v>376</v>
       </c>
       <c r="B377" s="2"/>
@@ -5739,7 +5853,7 @@
       <c r="D378" s="2"/>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B379" s="2"/>
@@ -5747,7 +5861,7 @@
       <c r="D379" s="2"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="5" t="s">
+      <c r="A380" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B380" s="2"/>
@@ -5763,7 +5877,7 @@
       <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="5" t="s">
+      <c r="A382" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B382" s="2"/>
@@ -5771,7 +5885,7 @@
       <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B383" s="2"/>
@@ -5779,14 +5893,14 @@
       <c r="D383" s="2"/>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" ht="22.5" spans="1:4">
+    <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
         <v>384</v>
       </c>
@@ -5795,7 +5909,7 @@
       <c r="D385" s="2"/>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="5" t="s">
+      <c r="A386" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B386" s="2"/>
@@ -5818,7 +5932,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" ht="21" spans="1:4">
       <c r="A389" s="1" t="s">
         <v>388</v>
       </c>
@@ -5826,7 +5940,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" ht="21" spans="1:4">
       <c r="A390" s="1" t="s">
         <v>389</v>
       </c>
@@ -5834,8 +5948,8 @@
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
     </row>
-    <row r="391" ht="22.5" spans="1:4">
-      <c r="A391" s="1" t="s">
+    <row r="391" spans="1:4">
+      <c r="A391" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B391" s="2"/>
@@ -5843,7 +5957,7 @@
       <c r="D391" s="2"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B392" s="2"/>
@@ -5851,7 +5965,7 @@
       <c r="D392" s="2"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B393" s="2"/>
@@ -5875,7 +5989,7 @@
       <c r="D395" s="2"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B396" s="2"/>
@@ -5883,7 +5997,7 @@
       <c r="D396" s="2"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B397" s="2"/>
@@ -5891,7 +6005,7 @@
       <c r="D397" s="2"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="4" t="s">
         <v>397</v>
       </c>
       <c r="B398" s="2"/>
@@ -5899,7 +6013,7 @@
       <c r="D398" s="2"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B399" s="2"/>
@@ -5907,7 +6021,7 @@
       <c r="D399" s="2"/>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B400" s="2"/>
@@ -5915,7 +6029,7 @@
       <c r="D400" s="2"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B401" s="2"/>
@@ -5923,7 +6037,7 @@
       <c r="D401" s="2"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="5" t="s">
+      <c r="A402" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B402" s="2"/>
@@ -5938,7 +6052,7 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" ht="21" spans="1:4">
       <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
@@ -5946,8 +6060,8 @@
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
     </row>
-    <row r="405" ht="22.5" spans="1:4">
-      <c r="A405" s="1" t="s">
+    <row r="405" spans="1:4">
+      <c r="A405" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B405" s="2"/>
@@ -5955,7 +6069,7 @@
       <c r="D405" s="2"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="5" t="s">
+      <c r="A406" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B406" s="2"/>
@@ -5971,7 +6085,7 @@
       <c r="D407" s="2"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="5" t="s">
+      <c r="A408" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B408" s="2"/>
@@ -5987,14 +6101,14 @@
       <c r="D409" s="2"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="4" t="s">
         <v>409</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" ht="21" spans="1:4">
       <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
@@ -6002,8 +6116,8 @@
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" ht="22.5" spans="1:4">
-      <c r="A412" s="1" t="s">
+    <row r="412" spans="1:4">
+      <c r="A412" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B412" s="2"/>
@@ -6027,7 +6141,7 @@
       <c r="D414" s="2"/>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B415" s="2"/>
@@ -6035,7 +6149,7 @@
       <c r="D415" s="2"/>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B416" s="2"/>
@@ -6067,7 +6181,7 @@
       <c r="D419" s="2"/>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B420" s="2"/>
@@ -6083,7 +6197,7 @@
       <c r="D421" s="2"/>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B422" s="2"/>
@@ -6106,8 +6220,8 @@
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="5" t="s">
+    <row r="425" ht="21" spans="1:4">
+      <c r="A425" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B425" s="2"/>
@@ -6115,7 +6229,7 @@
       <c r="D425" s="2"/>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B426" s="2"/>
@@ -6123,7 +6237,7 @@
       <c r="D426" s="2"/>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B427" s="2"/>
@@ -6147,7 +6261,7 @@
       <c r="D429" s="2"/>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B430" s="2"/>
@@ -6162,7 +6276,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" ht="21" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>431</v>
       </c>
@@ -6186,7 +6300,7 @@
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
     </row>
-    <row r="435" ht="22.5" spans="1:4">
+    <row r="435" spans="1:4">
       <c r="A435" s="5" t="s">
         <v>434</v>
       </c>
@@ -6195,7 +6309,7 @@
       <c r="D435" s="2"/>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B436" s="2"/>
@@ -6203,7 +6317,7 @@
       <c r="D436" s="2"/>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B437" s="2"/>
@@ -6211,7 +6325,7 @@
       <c r="D437" s="2"/>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B438" s="2"/>
@@ -6267,7 +6381,7 @@
       <c r="D444" s="2"/>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B445" s="2"/>
@@ -6283,15 +6397,15 @@
       <c r="D446" s="2"/>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="5" t="s">
+      <c r="A447" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
     </row>
-    <row r="448" ht="22.5" spans="1:4">
-      <c r="A448" s="1" t="s">
+    <row r="448" spans="1:4">
+      <c r="A448" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B448" s="2"/>
@@ -6299,7 +6413,7 @@
       <c r="D448" s="2"/>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B449" s="2"/>
@@ -6315,7 +6429,7 @@
       <c r="D450" s="2"/>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="4" t="s">
         <v>450</v>
       </c>
       <c r="B451" s="2"/>
@@ -6323,14 +6437,14 @@
       <c r="D451" s="2"/>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
     </row>
-    <row r="453" ht="22.5" spans="1:4">
+    <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
         <v>452</v>
       </c>
@@ -6355,15 +6469,15 @@
       <c r="D455" s="2"/>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="5" t="s">
+      <c r="A456" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="1" t="s">
+    <row r="457" ht="21" spans="1:4">
+      <c r="A457" s="5" t="s">
         <v>456</v>
       </c>
       <c r="B457" s="2"/>
@@ -6403,7 +6517,7 @@
       <c r="D461" s="2"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B462" s="2"/>
@@ -6443,7 +6557,7 @@
       <c r="D466" s="2"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="5" t="s">
+      <c r="A467" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B467" s="2"/>
@@ -6459,7 +6573,7 @@
       <c r="D468" s="2"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="4" t="s">
         <v>468</v>
       </c>
       <c r="B469" s="2"/>
@@ -6467,7 +6581,7 @@
       <c r="D469" s="2"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B470" s="2"/>
@@ -6483,15 +6597,15 @@
       <c r="D471" s="2"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" ht="22.5" spans="1:4">
-      <c r="A473" s="5" t="s">
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B473" s="2"/>
@@ -6514,8 +6628,8 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="5" t="s">
+    <row r="476" ht="21" spans="1:4">
+      <c r="A476" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B476" s="2"/>
@@ -6547,7 +6661,7 @@
       <c r="D479" s="2"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="5" t="s">
+      <c r="A480" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B480" s="2"/>
@@ -6555,7 +6669,7 @@
       <c r="D480" s="2"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B481" s="2"/>
@@ -6563,7 +6677,7 @@
       <c r="D481" s="2"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="5" t="s">
+      <c r="A482" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B482" s="2"/>
@@ -6579,7 +6693,7 @@
       <c r="D483" s="2"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B484" s="2"/>
@@ -6595,7 +6709,7 @@
       <c r="D485" s="2"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="5" t="s">
+      <c r="A486" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B486" s="2"/>
@@ -6603,7 +6717,7 @@
       <c r="D486" s="2"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="5" t="s">
+      <c r="A487" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B487" s="2"/>
@@ -6618,8 +6732,8 @@
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
     </row>
-    <row r="489" ht="22.5" spans="1:4">
-      <c r="A489" s="5" t="s">
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B489" s="2"/>
@@ -6627,7 +6741,7 @@
       <c r="D489" s="2"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="5" t="s">
+      <c r="A490" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B490" s="2"/>
@@ -6651,7 +6765,7 @@
       <c r="D492" s="2"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B493" s="2"/>
@@ -6659,12 +6773,12 @@
       <c r="D493" s="2"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="5" t="s">
+      <c r="A494" s="1" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="4" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6674,17 +6788,17 @@
       </c>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="4" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="5" t="s">
+      <c r="A498" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
-      <c r="A499" s="1" t="s">
+    <row r="499" ht="21" spans="1:1">
+      <c r="A499" s="5" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6693,8 +6807,8 @@
         <v>499</v>
       </c>
     </row>
-    <row r="501" ht="22.5" spans="1:1">
-      <c r="A501" s="1" t="s">
+    <row r="501" spans="1:1">
+      <c r="A501" s="4" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6709,22 +6823,22 @@
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="5" t="s">
+      <c r="A504" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="5" t="s">
+      <c r="A505" s="1" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="5" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="5" t="s">
         <v>506</v>
       </c>
     </row>
@@ -6734,7 +6848,7 @@
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="5" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6754,12 +6868,12 @@
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="5" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6768,18 +6882,18 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" ht="22.5" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="5" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="4" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6794,7 +6908,7 @@
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="5" t="s">
+      <c r="A521" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6804,7 +6918,7 @@
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="5" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6814,7 +6928,7 @@
       </c>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="5" t="s">
+      <c r="A525" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6834,11 +6948,11 @@
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="5" t="s">
+      <c r="A529" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="21" spans="1:1">
       <c r="A530" s="1" t="s">
         <v>529</v>
       </c>
@@ -6859,7 +6973,7 @@
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="5" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6869,7 +6983,7 @@
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="5" t="s">
+      <c r="A536" s="1" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6879,7 +6993,7 @@
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="5" t="s">
+      <c r="A538" s="1" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6899,12 +7013,12 @@
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="5" t="s">
+      <c r="A542" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="5" t="s">
+      <c r="A543" s="1" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6914,7 +7028,7 @@
       </c>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -6924,12 +7038,12 @@
       </c>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="5" t="s">
+      <c r="A547" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="5" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6939,7 +7053,7 @@
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6953,7 +7067,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" ht="22.5" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="1" t="s">
         <v>552</v>
       </c>
@@ -6963,13 +7077,13 @@
         <v>553</v>
       </c>
     </row>
-    <row r="555" ht="22.5" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="5" t="s">
         <v>555</v>
       </c>
     </row>
@@ -6979,7 +7093,7 @@
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="5" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6994,12 +7108,12 @@
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="5" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="5" t="s">
         <v>561</v>
       </c>
     </row>
@@ -7008,23 +7122,23 @@
         <v>562</v>
       </c>
     </row>
-    <row r="564" ht="22.5" spans="1:1">
-      <c r="A564" s="5" t="s">
+    <row r="564" spans="1:1">
+      <c r="A564" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" ht="22.5" spans="1:1">
-      <c r="A565" s="1" t="s">
+    <row r="565" spans="1:1">
+      <c r="A565" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="566" ht="22.5" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="5" t="s">
         <v>566</v>
       </c>
     </row>
@@ -7034,7 +7148,7 @@
       </c>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="5" t="s">
+      <c r="A569" s="1" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7044,7 +7158,7 @@
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="5" t="s">
         <v>570</v>
       </c>
     </row>
@@ -7054,27 +7168,27 @@
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="5" t="s">
+      <c r="A573" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="5" t="s">
+      <c r="A574" s="1" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="5" t="s">
+      <c r="A575" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="5" t="s">
+      <c r="A576" s="4" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="5" t="s">
+      <c r="A577" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7093,7 +7207,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="581" ht="22.5" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="1" t="s">
         <v>580</v>
       </c>
@@ -7104,21 +7218,21 @@
       </c>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="5" t="s">
+      <c r="A583" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="21" spans="1:1">
       <c r="A584" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="21" spans="1:1">
       <c r="A586" s="1" t="s">
         <v>585</v>
       </c>
@@ -7148,7 +7262,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="592" ht="22.5" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
         <v>591</v>
       </c>
@@ -7159,32 +7273,32 @@
       </c>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="5" t="s">
+      <c r="A594" s="1" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="21" spans="1:1">
       <c r="A596" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
-      <c r="A597" s="5" t="s">
+    <row r="597" ht="21" spans="1:1">
+      <c r="A597" s="1" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="5" t="s">
+      <c r="A598" s="1" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="5" t="s">
+      <c r="A599" s="1" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7194,12 +7308,12 @@
       </c>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="4" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="4" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7209,27 +7323,27 @@
       </c>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="5" t="s">
+      <c r="A604" s="1" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="5" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="606" spans="1:1">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="5" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="5" t="s">
+      <c r="A607" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="4" t="s">
         <v>607</v>
       </c>
     </row>
@@ -7239,22 +7353,22 @@
       </c>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="611" ht="22.5" spans="1:1">
-      <c r="A611" s="1" t="s">
+    <row r="611" spans="1:1">
+      <c r="A611" s="5" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="5" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="4" t="s">
         <v>612</v>
       </c>
     </row>
@@ -7273,13 +7387,13 @@
         <v>615</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="21" spans="1:1">
       <c r="A617" s="1" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="5" t="s">
         <v>617</v>
       </c>
     </row>
@@ -7293,7 +7407,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="621" ht="22.5" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="1" t="s">
         <v>620</v>
       </c>
@@ -7328,18 +7442,18 @@
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
-      <c r="A628" s="5" t="s">
+    <row r="628" ht="21" spans="1:1">
+      <c r="A628" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="629" ht="22.5" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="1" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="5" t="s">
         <v>629</v>
       </c>
     </row>
@@ -7354,18 +7468,203 @@
       </c>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="5" t="s">
         <v>633</v>
       </c>
     </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" ht="21" spans="1:1">
+      <c r="A647" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" ht="21" spans="1:1">
+      <c r="A658" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" ht="21" spans="1:1">
+      <c r="A666" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A634">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:A671">
+    <sortCondition ref="A671"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/emails academicos.xlsx
+++ b/emails academicos.xlsx
@@ -727,7 +727,7 @@
     <t xml:space="preserve"> Gilmar Santana Vieira &lt;gilmar.vieira91@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> GILVANY COSTA ALMEIDA</t>
+    <t xml:space="preserve"> GILVANY COSTA ALMEIDA &lt;gilvany.almeida01@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Giovanna Victoria do Nascimento Araujo &lt;giovanna.araujo97@academico.ifs.edu.br&gt;</t>
@@ -2034,10 +2034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2071,43 +2071,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2122,7 +2086,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2136,32 +2138,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2175,16 +2183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,7 +2192,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2215,43 +2215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,7 +2239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,19 +2275,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,13 +2329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,7 +2365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2341,61 +2383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,39 +2406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2453,6 +2420,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2474,10 +2450,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2487,6 +2461,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2511,148 +2511,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2997,8 +2997,8 @@
   <sheetPr/>
   <dimension ref="A1:D671"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/emails academicos.xlsx
+++ b/emails academicos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t xml:space="preserve"> ANA CASSIA SILVA SANTOS &lt;ana.santos026@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANA FERREIRA</t>
+    <t xml:space="preserve"> ANA FERREIRA &lt;ana.ferreira063@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> ANA JÚLIA ROCHA DOS SANTOS &lt;ana.santos093@academico.ifs.edu.br&gt;</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve"> Anderson Rodrigues da Cruz &lt;anderson.cruz00@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANDERSON SILVA FREIRE</t>
+    <t xml:space="preserve"> ANDERSON SILVA FREIRE &lt;anderson.freire88@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> ANDRE FELIPE DE SANTANA CONCEICAO &lt;andre.conceicao099@academico.ifs.edu.br&gt;</t>
@@ -199,13 +199,13 @@
     <t xml:space="preserve"> ANTONIO JOSE DA SIVA FILHO &lt;antonio.filho082@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANTONIO JOSE DOS SANTOS</t>
+    <t xml:space="preserve"> ANTONIO JOSE DOS SANTOS &lt;antonio.santos007@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> ANTONIO MACHADO SILVINO NETO &lt;antonio.neto004@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANTONIO MUNIZ QUEIROZ NETO</t>
+    <t xml:space="preserve"> ANTONIO MUNIZ QUEIROZ NETO &lt;antonio.neto0827@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> ANTÔNIO SEVERO SANTOS NETO &lt;antonio.neto091@academico.ifs.edu.br&gt;</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve"> CAMILA SANTOS MORAIS &lt;camila.morais083@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> CAMILA SILVA SANTOS</t>
+    <t xml:space="preserve"> Camila Silva Santos &lt;camila.santos97@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Camile Vitória Santos Soares &lt;camile.soares@academico.ifs.edu.br&gt;</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve"> CLEBERTON CONCEIÇÃO DE MENEZES &lt;cleberton.menezes058@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> CLEDSON ALENCAR DE ANDRADE</t>
+    <t xml:space="preserve"> CLEDSON ALENCAR DE ANDRADE &lt;cledson.andrade88@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Clese Anne Almeida Santos de Melo &lt;clese.melo80@academico.ifs.edu.br&gt;</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve"> DAVI NUNES FREIRE &lt;davi.freire096@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> DAVI SANTOS SANTANA SIQUEIRA</t>
+    <t xml:space="preserve"> DAVI SANTOS SANTANA SIQUEIRA MENEZES &lt;davi.menezes018@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> DAVID SANTOS MACHADO &lt;david.machado069@academico.ifs.edu.br&gt;</t>
@@ -448,10 +448,10 @@
     <t xml:space="preserve"> Davyson Conceição Santos &lt;davyson.santos98@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> DAYANE DE OLIVEIRA BARBOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAYVID CRISTIAN SILVA COSTA</t>
+    <t xml:space="preserve"> DAYANE DE OLIVEIRA BARBOSA &lt;dayane.barbosa87@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAYVID CRISTIAN SILVA COSTA &lt;dayvid.costa96@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> DAYVSON GABRIEL ALVES DOS SANTOS &lt;dayvson.santos188@academico.ifs.edu.br&gt;</t>
@@ -469,7 +469,7 @@
     <t xml:space="preserve"> Denis de Matos Santos &lt;denis.santos88@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> DENISSON DE SOUZA OLIVEIRA</t>
+    <t xml:space="preserve"> DENISSON DE SOUZA OLIVEIRA &lt;denisson.oliveira97@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> DENISSON RIBEIRO FERREIRA &lt;denisson.ferreira082@academico.ifs.edu.br&gt;</t>
@@ -547,7 +547,7 @@
     <t xml:space="preserve"> ELIAS DOS SANTOS SEVERO &lt;elias.severo078@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ELISSON DOS SANTOS</t>
+    <t xml:space="preserve"> ELISSON DOS SANTOS &lt;elisson.santos088@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> ELIVELTON DIVINO SANTOS &lt;elivelton.santos091@academico.ifs.edu.br&gt;</t>
@@ -607,7 +607,7 @@
     <t xml:space="preserve"> Esthefany Araujo da Silva &lt;esthefany.silva01@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ESTHER LARISSA DOS SANTOS CONCEICAO</t>
+    <t xml:space="preserve"> ESTHER LARISSA DOS SANTOS CONCEICAO &lt;esther.conceicao086@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> FABIA LETICIA CARMO DE SOUZA &lt;fabia.souza091@academico.ifs.edu.br&gt;</t>
@@ -643,7 +643,7 @@
     <t xml:space="preserve"> FERNANDA PINHEIRO SANTOS &lt;fernanda.santos065@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> FERNANDO ALVES DAMASCENO</t>
+    <t xml:space="preserve"> Fernando Alves Damaceno &lt;fernando.damaceno88@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> FERNANDO RANGEL ANCHIETA DOS SANTOS &lt;fernando.santos085@academico.ifs.edu.br&gt;</t>
@@ -685,7 +685,7 @@
     <t xml:space="preserve"> GABRIEL SILVA DE JESUS &lt;gabriel.jesus107@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> GABRIEL SILVA SANTOS</t>
+    <t xml:space="preserve"> GABRIEL SILVA SANTOS &lt;gabriel.santos088@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> GABRIELA CAETANO CARDOSO &lt;gabriela.cardoso079@academico.ifs.edu.br&gt;</t>
@@ -760,7 +760,7 @@
     <t xml:space="preserve"> GUSTAVO HENRIQUE CONCEICAO MENEZES &lt;gustavo.menezes090@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> GUSTAVO HENRIQUE DE JESUS SANTOS</t>
+    <t xml:space="preserve"> GUSTAVO HENRIQUE DE JESUS SANTOS &lt;gustavo.santos047@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> GUSTAVO MIRANDA BARBOSA &lt;gustavo.barbosa078@academico.ifs.edu.br&gt;</t>
@@ -787,7 +787,7 @@
     <t xml:space="preserve"> Henrique Rodrigues Santos &lt;henrique.santos98@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> HERMENEGILDA MENEZES DE JESUS SANTOS</t>
+    <t xml:space="preserve"> HERMENEGILDA MENEZES DE JESUS SANTOS  &lt;hermenegilda.santos067@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> HEYSHILA KLEYSLA DE JESUS SANTOS &lt;heyshila.santos094@academico.ifs.edu.br&gt;</t>
@@ -802,13 +802,13 @@
     <t xml:space="preserve"> Hugo Caetano Cardoso &lt;hugo.cardoso96@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> HUGO RODRIGUES DE FARIAS</t>
+    <t xml:space="preserve"> Hugo Rodrigues de Farias &lt;hugo.farias061@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> HUGO SOUZA DE ASSUNÇÃO &lt;hugo.assuncao055@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> IAGO DAMIAO DOS SANTOS GONCALVES</t>
+    <t xml:space="preserve"> IAGO DAMIAO DOS SANTOS GONCALVES &lt;iago.goncalves091@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Iago Nathan Barreto Menezes de Souza &lt;iago.souza99@academico.ifs.edu.br&gt;</t>
@@ -874,7 +874,7 @@
     <t xml:space="preserve"> ITALO OLIVEIRA SANTOS DE JESUS &lt;italo.jesus058@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ITALO ROBERTO DE JESUS SANTOS</t>
+    <t xml:space="preserve"> ITALO ROBERTO DE JESUS SANTOS &lt;italo.santos95@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> IURY ANTONIO SANTOS PEREIRA &lt;iury.pereira092@academico.ifs.edu.br&gt;</t>
@@ -925,7 +925,7 @@
     <t xml:space="preserve"> JEIZA GABRIELLA SANTOS CASTRO &lt;jeiza.castro94@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> JESSICA BARBOSA DOS SANTOS</t>
+    <t xml:space="preserve"> JESSICA BARBOSA DOS SANTOS &lt;jessica.santos043@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> JESSICA MARIA SANTOS COSTA &lt;jessica.costa077@academico.ifs.edu.br&gt;</t>
@@ -1189,16 +1189,16 @@
     <t xml:space="preserve"> KELVES RYAN SANTANA CONSTANTE &lt;kelves.constante090@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> KESIA DOS SANTOS RAMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KLAYCE SANTOS SIQUEIRA</t>
+    <t xml:space="preserve"> KESIA DOS SANTOS RAMOS &lt;kesia.ramos078@academico.ifs.edu.br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Klayce Santos Siqueira &lt;klayce.siqueira00@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> KLEYTON HIGOR SANTOS ASSUNÇÃO &lt;kleyton.assuncao042@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LAIS DA SILVA SANTOS</t>
+    <t xml:space="preserve"> LAIS DA SILVA SANTOS &lt;lais.santos092@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LAIS SANTANA REIS &lt;lais.reis066@academico.ifs.edu.br&gt;</t>
@@ -1258,7 +1258,7 @@
     <t xml:space="preserve"> LEONARDO SANTOS TELES &lt;leonardo.teles115@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LEONARDO SILVEIRA SANTOS</t>
+    <t xml:space="preserve"> LEONARDO SILVEIRA SANTOS ,leonardo.santos96@academico.ifs.edu.br.</t>
   </si>
   <si>
     <t xml:space="preserve"> LEONARDO VERCOSA DOS SANTOS &lt;leonardo.santos019@academico.ifs.edu.br&gt;</t>
@@ -1357,13 +1357,13 @@
     <t xml:space="preserve"> LUCY HELLEN BARBOSA RODRIGUES &lt;lucy.rodrigues073@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUCYLIA TRINDADE DE SOUSA NASCIMENTO</t>
+    <t xml:space="preserve"> Lucylia Trindade de Souza &lt;lucylia.souza92@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LUDMILA MARIA CIRINO DOS SANTOS &lt;ludmila.santos092@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUIS CARLOS DOS SANTOS</t>
+    <t xml:space="preserve"> LUIS CARLOS DOS SANTOS &lt;luis.santos253@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LUÍS PAULO MENEZES ÁVILA &lt;luis.avila066@academico.ifs.edu.br&gt;</t>
@@ -1399,7 +1399,7 @@
     <t xml:space="preserve"> MAITE ASSUNCAO DE JESUS &lt;maite.jesus105@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARCELA REIS CARVALHO</t>
+    <t xml:space="preserve"> Marcela Reis Carvalho &lt;marcela.carvalho94@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> MARCELLA BISPO &lt;marcella.bispo087@academico.ifs.edu.br&gt;</t>
@@ -1432,7 +1432,7 @@
     <t xml:space="preserve"> Maria Aline de Jesus Santos &lt;maria.santos051@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARIA APARECIDA DOS SANTOS SILVA</t>
+    <t xml:space="preserve"> MARIA APARECIDA DOS SANTOS SILVA &lt;maria.silva0801@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> MARIA CLARA DIAS PENELUC &lt;maria.peneluc861@academico.ifs.edu.br&gt;</t>
@@ -1462,7 +1462,7 @@
     <t xml:space="preserve"> MARIA THAILAINE SANTOS SILVA &lt;maria.silva0915@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARIA VITORIA SANTOS CRUZ</t>
+    <t xml:space="preserve"> MARIA VITORIA SANTOS CRUZ &lt;maria.cruz045@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Mariana Silveira Araujo &lt;mariana.araujo94@academico.ifs.edu.br&gt;</t>
@@ -1675,7 +1675,7 @@
     <t xml:space="preserve"> RAEL LINICK DE SOUZA PIRES &lt;rael.pires069@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> RAFAEL DE JESUS SILVA</t>
+    <t xml:space="preserve"> RAFAEL DE JESUS SILVA &lt;rafael.silva058@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Rafaela Ferreira Bittencourt &lt;rafaela.bittencourt02@academico.ifs.edu.br&gt;</t>
@@ -1687,7 +1687,7 @@
     <t xml:space="preserve"> RAI MOREIRA DO NASCIMENTO &lt;rai.nascimento064@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> RAIANE CONCEICAO DE CARVALHO</t>
+    <t>RAIANE CONCEICAO DE CARVALHO &lt;raiane.carvalho068@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Raiane dos Santos Lima &lt;raiane.lima01@academico.ifs.edu.br&gt;</t>
@@ -1729,7 +1729,7 @@
     <t xml:space="preserve"> RENATA SANTOS ALMEIDA DA CRUZ &lt;renata.cruz054@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> RENATA SOARES ALMEIDA</t>
+    <t xml:space="preserve"> Renata Soares Almeida &lt;renata.almeida090@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> RENIELLY DOS SANTOS FELIX &lt;renielly.felix091@academico.ifs.edu.br&gt;</t>
@@ -1744,7 +1744,7 @@
     <t xml:space="preserve"> RIVALDO CONCEICAO COSTA &lt;rivaldo.costa082@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ROBERIO DE JESUS</t>
+    <t xml:space="preserve"> ROBERIO DE JESUS &lt;roberio.jesus038@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Robert dos Santos Argolo &lt;robert.argolo94@academico.ifs.edu.br&gt;</t>
@@ -1852,7 +1852,7 @@
     <t xml:space="preserve"> Silviane Oliveira Santos &lt;silviane.santos92@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOFIA SANTOS ARAUJO</t>
+    <t xml:space="preserve"> SOFIA SANTOS ARAUJO &lt;sofia.araujo040@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Stefane Karolaine Leite Almeida &lt;stefane.almeida99@academico.ifs.edu.br&gt;</t>
@@ -1933,7 +1933,7 @@
     <t xml:space="preserve"> THYAGO SANTOS MACHADO &lt;thyago.machado075@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> VANDERLER SANTOS JUNIOR</t>
+    <t xml:space="preserve"> VANDERLER SANTOS JUNIOR &lt;vanderler.junior87@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> VANESSA BATISTA DOS SANTOS &lt;vanessa.santos060@academico.ifs.edu.br&gt;</t>
@@ -1969,7 +1969,7 @@
     <t xml:space="preserve"> Vilmaria Santos dos Anjos &lt;vilmaria.anjos98@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> VINICIOS ALMEIDA ASEVEDO</t>
+    <t xml:space="preserve"> VINICIOS ALMEIDA ASEVEDO &lt;vinicios.asevedo081@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> VITOR DANIEL LIMA FERNANDES &lt;vitor.fernandes084@academico.ifs.edu.br&gt;</t>
@@ -2063,6 +2063,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2071,14 +2078,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,24 +2092,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2152,17 +2153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2176,10 +2168,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2190,19 +2182,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2215,7 +2215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,6 +2240,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,31 +2353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2287,85 +2383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,25 +2395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,6 +2406,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2420,15 +2444,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2460,8 +2475,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2480,32 +2506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2517,142 +2517,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2998,12 +2998,12 @@
   <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="56.14" customWidth="1"/>
+    <col min="1" max="1" width="75.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3014,7 +3014,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="14.5" spans="1:1">
+    <row r="2" ht="15" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="21" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="21" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="21" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" ht="21" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" ht="21" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" ht="21" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" ht="21" spans="1:4">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="5" t="s">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="2"/>
@@ -3761,7 +3761,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" ht="21" spans="1:4">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -3831,14 +3831,14 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" ht="21" spans="1:4">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" ht="21" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" ht="21" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="5" t="s">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="2"/>
@@ -4139,7 +4139,7 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" ht="21" spans="1:4">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" ht="21" spans="1:4">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" ht="21" spans="1:4">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="5" t="s">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="2"/>
@@ -4292,7 +4292,7 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" ht="21" spans="1:4">
+    <row r="184" spans="1:4">
       <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" ht="21" spans="1:4">
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -4501,14 +4501,14 @@
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" ht="21" spans="1:4">
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" ht="21" spans="1:4">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" ht="21" spans="1:4">
+    <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" ht="21" spans="1:4">
+    <row r="227" spans="1:4">
       <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" ht="21" spans="1:4">
+    <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" ht="21" spans="1:4">
+    <row r="235" spans="1:4">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" ht="21" spans="1:4">
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" s="2"/>
@@ -4836,7 +4836,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" ht="21" spans="1:4">
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" ht="21" spans="1:4">
+    <row r="253" spans="1:4">
       <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="D262" s="2"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263" s="2"/>
@@ -5156,7 +5156,7 @@
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" ht="21" spans="1:4">
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="D303" s="2"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="5" t="s">
+      <c r="A304" t="s">
         <v>303</v>
       </c>
       <c r="B304" s="2"/>
@@ -5508,7 +5508,7 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" ht="21" spans="1:4">
+    <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" ht="21" spans="1:4">
+    <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
         <v>368</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" ht="21" spans="1:4">
+    <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
         <v>388</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" ht="21" spans="1:4">
+    <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
         <v>389</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="D392" s="2"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="5" t="s">
+      <c r="A393" t="s">
         <v>392</v>
       </c>
       <c r="B393" s="2"/>
@@ -6052,7 +6052,7 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
     </row>
-    <row r="404" ht="21" spans="1:4">
+    <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" ht="21" spans="1:4">
+    <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" ht="21" spans="1:4">
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>424</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" ht="21" spans="1:4">
+    <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>431</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="D447" s="2"/>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="5" t="s">
+      <c r="A448" t="s">
         <v>447</v>
       </c>
       <c r="B448" s="2"/>
@@ -6421,7 +6421,7 @@
       <c r="D449" s="2"/>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="1" t="s">
+      <c r="A450" t="s">
         <v>449</v>
       </c>
       <c r="B450" s="2"/>
@@ -6476,7 +6476,7 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
     </row>
-    <row r="457" ht="21" spans="1:4">
+    <row r="457" spans="1:4">
       <c r="A457" s="5" t="s">
         <v>456</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="D461" s="2"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="5" t="s">
+      <c r="A462" t="s">
         <v>461</v>
       </c>
       <c r="B462" s="2"/>
@@ -6628,7 +6628,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" ht="21" spans="1:4">
+    <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
         <v>475</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" ht="21" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="5" t="s">
         <v>498</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="530" ht="21" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
         <v>529</v>
       </c>
@@ -7073,7 +7073,7 @@
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="5" t="s">
+      <c r="A554" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
       </c>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="5" t="s">
+      <c r="A558" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="5" t="s">
+      <c r="A572" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="1" t="s">
+      <c r="A577" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7222,7 +7222,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" ht="21" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="1" t="s">
         <v>583</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="586" ht="21" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
         <v>585</v>
       </c>
@@ -7282,12 +7282,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="596" ht="21" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" ht="21" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="1" t="s">
         <v>596</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="617" ht="21" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="1" t="s">
         <v>616</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="628" ht="21" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
         <v>627</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="647" ht="21" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="1" t="s">
         <v>646</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="658" ht="21" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="1" t="s">
         <v>657</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="666" ht="21" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="1" t="s">
         <v>665</v>
       </c>

--- a/emails academicos.xlsx
+++ b/emails academicos.xlsx
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve"> Jose Domingos dos Santos Nascimento &lt;jose.nascimento94@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> JOSE DOS SANTOS</t>
+    <t xml:space="preserve"> JOSE DOS SANTOS &lt;jose.santos575@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Jose Eduardo Macedo Carvalho &lt;jose.carvalho97@academico.ifs.edu.br&gt;</t>
@@ -2062,8 +2062,100 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2076,19 +2168,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2110,99 +2200,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2212,6 +2212,156 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2227,43 +2377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,127 +2395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,30 +2424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2468,6 +2444,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2506,6 +2497,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2517,142 +2517,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2997,8 +2997,8 @@
   <sheetPr/>
   <dimension ref="A1:D671"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>

--- a/emails academicos.xlsx
+++ b/emails academicos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <t xml:space="preserve"> DICKSON HERNANDES CRUZ VIEIRA &lt;dickson.vieira067@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> DIOGENES SIDNEY SANTOS SOUZA</t>
+    <t xml:space="preserve"> DIOGENES SIDNEY SANTOS SOUZA &lt;diogens.souza024@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> DOGLAS FONTES SANTOS &lt;doglas.santos086@academico.ifs.edu.br&gt;</t>
@@ -571,7 +571,7 @@
     <t xml:space="preserve"> EMILLIE ACÁCIA SANTOS &lt;emillie.santos029@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> EMILLY CONCEICAO COSTA</t>
+    <t xml:space="preserve"> EMILLY CONCEICAO COSTA &lt;emilly.costa082@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> EMILLY GIOVANA COSTA SANTOS &lt;emilly.santos092@academico.ifs.edu.br&gt;</t>
@@ -643,7 +643,7 @@
     <t xml:space="preserve"> FERNANDA PINHEIRO SANTOS &lt;fernanda.santos065@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fernando Alves Damaceno &lt;fernando.damaceno88@academico.ifs.edu.br&gt;</t>
+    <t xml:space="preserve"> Fernando Alves Damasceno &lt;fernando.damaceno88@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> FERNANDO RANGEL ANCHIETA DOS SANTOS &lt;fernando.santos085@academico.ifs.edu.br&gt;</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve"> LUCAS LUCAS ARAUJO DOS SANTOS &lt;lucas.santos056@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUCAS MENESES LIMA SILVA</t>
+    <t xml:space="preserve"> LUCAS MENESES LIMA SILVA &lt;lucas.silva94@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> LUCAS SANTOS BONFIM &lt;lucas.bonfim083@academico.ifs.edu.br&gt;</t>
@@ -1723,7 +1723,7 @@
     <t xml:space="preserve"> REDNEY TAVARES DOS SANTOS &lt;redney.santos086@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> REINAN CONCEICAO RODRIGUES &lt;reinan.rodrigues014@academico.ifs.edu.br&gt;</t>
+    <t xml:space="preserve"> REINAN CONCEICAO RODRIGUES. &lt;reinan.rodrigues014@academico.ifs.edu.br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> RENATA SANTOS ALMEIDA DA CRUZ &lt;renata.cruz054@academico.ifs.edu.br&gt;</t>
@@ -2062,16 +2062,23 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,6 +2099,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2101,37 +2115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,43 +2126,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2205,6 +2152,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2215,85 +2215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,25 +2233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,7 +2257,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,19 +2335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,19 +2389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,16 +2409,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2443,42 +2472,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2497,15 +2506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2517,142 +2517,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2997,13 +2997,13 @@
   <sheetPr/>
   <dimension ref="A1:D671"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A349" sqref="A349"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="13" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="75.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="75.71" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3014,7 +3014,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="15" spans="1:1">
+    <row r="2" ht="14.5" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
